--- a/data/rawdata/ORB_Peak_Streamflow_Codes.xlsx
+++ b/data/rawdata/ORB_Peak_Streamflow_Codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yash Amonkar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yash Amonkar\Documents\GitHub\Ohio-River-Basin-Paper\data\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E311B3-B933-4D6D-AA5D-2EAFC0C5C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D64211-AC73-4BF7-B8ED-18BEC9B79F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{4D7A9E2F-0C4B-43D6-A2FE-EF1472844339}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t xml:space="preserve">USGS Station Number </t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Potential decreasing trend (peaks shaved off)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes on the streamflow codes:- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source:- </t>
+  </si>
+  <si>
+    <t>https://nwis.waterdata.usgs.gov/nwis/peak?search_criteria=search_site_no&amp;submitted_form=introduction</t>
   </si>
 </sst>
 </file>
@@ -114,10 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,20 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B01DF-28C0-4337-BAE4-A4C1AEA84743}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3025500</v>
       </c>
@@ -568,7 +578,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3031500</v>
       </c>
@@ -579,7 +589,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3036500</v>
       </c>
@@ -590,7 +600,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3075070</v>
       </c>
@@ -601,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3086000</v>
       </c>
@@ -609,7 +619,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3105500</v>
       </c>
@@ -617,7 +627,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3129000</v>
       </c>
@@ -628,7 +638,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>3168000</v>
       </c>
@@ -642,7 +652,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3176500</v>
       </c>
@@ -650,7 +660,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3193000</v>
       </c>
@@ -661,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>3231500</v>
       </c>
@@ -677,7 +687,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>3234500</v>
       </c>
@@ -695,7 +705,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3270500</v>
       </c>
@@ -703,7 +713,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3274000</v>
       </c>
@@ -711,7 +721,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3294500</v>
       </c>
@@ -722,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3320000</v>
       </c>
@@ -733,23 +743,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
         <v>3329000</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>1967</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3335500</v>
       </c>
@@ -760,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3340500</v>
       </c>
@@ -771,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3341500</v>
       </c>
@@ -782,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>3345500</v>
       </c>
@@ -796,7 +806,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>3353000</v>
       </c>
@@ -807,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>3360500</v>
       </c>
@@ -818,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>3365500</v>
       </c>
@@ -832,7 +842,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3373500</v>
       </c>
@@ -843,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3374000</v>
       </c>
@@ -854,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3377500</v>
       </c>
@@ -863,6 +873,19 @@
       </c>
       <c r="D28" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +901,7 @@
       <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
